--- a/team_specific_matrix/UC Merced_A.xlsx
+++ b/team_specific_matrix/UC Merced_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1111111111111111</v>
+        <v>0.1875</v>
       </c>
       <c r="C2">
-        <v>0.7777777777777778</v>
+        <v>0.6875</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1111111111111111</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.4285714285714285</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.5714285714285714</v>
+        <v>0.3846153846153846</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -779,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1666666666666667</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="S6">
-        <v>0.3333333333333333</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.125</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.25</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0.625</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,7 +852,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2222222222222222</v>
+        <v>0.1</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1111111111111111</v>
+        <v>0.1</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2222222222222222</v>
+        <v>0.2</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S8">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2142857142857143</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2142857142857143</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0.5714285714285714</v>
+        <v>0.5217391304347826</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1333333333333333</v>
+        <v>0.09876543209876543</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02222222222222222</v>
+        <v>0.04938271604938271</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="F10">
-        <v>0.04444444444444445</v>
+        <v>0.08641975308641975</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1777777777777778</v>
+        <v>0.1358024691358025</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02222222222222222</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1777777777777778</v>
+        <v>0.1358024691358025</v>
       </c>
       <c r="R10">
-        <v>0.06666666666666667</v>
+        <v>0.08641975308641975</v>
       </c>
       <c r="S10">
-        <v>0.3555555555555556</v>
+        <v>0.3580246913580247</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="G11">
-        <v>0.2</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1333333333333333</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="K11">
-        <v>0.2666666666666667</v>
+        <v>0.2258064516129032</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.06666666666666667</v>
+        <v>0.03225806451612903</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1283,13 +1283,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1428571428571428</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="I15">
-        <v>0.1428571428571428</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="J15">
-        <v>0.4285714285714285</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1298,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.1428571428571428</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1428571428571428</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.25</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="I16">
         <v>0.25</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0625</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.0625</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="I17">
-        <v>0.125</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="J17">
-        <v>0.4375</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="K17">
-        <v>0.0625</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0625</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1875</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,13 +1460,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="I18">
-        <v>0.6666666666666666</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.3333333333333333</v>
+        <v>0.3636363636363636</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.03773584905660377</v>
+        <v>0.03669724770642202</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1132075471698113</v>
+        <v>0.1192660550458716</v>
       </c>
       <c r="I19">
-        <v>0.169811320754717</v>
+        <v>0.1192660550458716</v>
       </c>
       <c r="J19">
-        <v>0.3018867924528302</v>
+        <v>0.3119266055045872</v>
       </c>
       <c r="K19">
-        <v>0.169811320754717</v>
+        <v>0.1651376146788991</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01886792452830189</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07547169811320754</v>
+        <v>0.06422018348623854</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1132075471698113</v>
+        <v>0.1651376146788991</v>
       </c>
     </row>
   </sheetData>
